--- a/data/financial_statements/soci/SIVB.xlsx
+++ b/data/financial_statements/soci/SIVB.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -113,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -470,1261 +584,1294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>1552000000</v>
+        <v>2246000000</v>
       </c>
       <c r="C2">
-        <v>1481000000</v>
+        <v>1880000000</v>
       </c>
       <c r="D2">
-        <v>1544000000</v>
+        <v>1636000000</v>
       </c>
       <c r="E2">
-        <v>1499000000</v>
+        <v>1639000000</v>
       </c>
       <c r="F2">
-        <v>1469000000</v>
+        <v>1536000000</v>
       </c>
       <c r="G2">
+        <v>1556000000</v>
+      </c>
+      <c r="H2">
         <v>1512000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1423000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1229664000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1090000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>893000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>869335900</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>902192000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>877901000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>919517000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>831390000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>729604000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>723383000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>673990000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>587916000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>557282000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>544049000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>482455000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>438585000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>420835000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>444553000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>406768000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>377792000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>393738100</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>373268000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>380213000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>372340000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>411361900</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>309493000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>228051000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>515249000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>434096900</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>442890000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>276222000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>249618000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>0.0565</v>
+        <v>0.4622</v>
       </c>
       <c r="C3">
-        <v>-0.0205</v>
+        <v>0.2082</v>
       </c>
       <c r="D3">
-        <v>0.08500000000000001</v>
+        <v>0.082</v>
       </c>
       <c r="E3">
-        <v>0.219</v>
+        <v>0.1518</v>
       </c>
       <c r="F3">
-        <v>0.3477</v>
+        <v>0.2491</v>
       </c>
       <c r="G3">
+        <v>0.4275</v>
+      </c>
+      <c r="H3">
         <v>0.6932</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.6369</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.363</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.2416</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.0288</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.0456</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.2366</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.2136</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.3643</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.4141</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.3092</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.3296</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.397</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.3405</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.3242</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.2238</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.1861</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.1609</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.0688</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.191</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.0698</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.0146</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>-0.0428</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.2061</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.6672</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>-0.2774</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>-0.0524</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>-0.3012</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>-0.1744</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>1.0642</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.4722</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.9165</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.1498</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.1447</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>718000000</v>
+      </c>
+      <c r="C4">
         <v>323000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>107000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>40000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>36000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>32000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>23000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>19000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>15735000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>15000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>11000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>43265000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>55260000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>63248000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>56364000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>38128000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>28437000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>20091000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>14858000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>12535000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>11310000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>11297000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>11231000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>10933000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>10728000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>11252000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>10656000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>10237000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>10163000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>10131000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>10155000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>9891000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>8988000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>8761000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>8876000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>8696000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>8386000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>8144000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>7902000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>7845000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>1528000000</v>
+      </c>
+      <c r="C5">
         <v>1557000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1529000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1599000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1500000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1524000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1489000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1404000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1213929000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1075000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>882000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>826070900</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>846932000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>814653000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>863153000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>793262000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>701167000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>703292000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>659132000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>575381000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>545972000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>532752000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>471224000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>427652000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>410107000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>433301000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>396112000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>367555000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>383575100</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>363137000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>370058000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>362449000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>402373900</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>300732000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>219175000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>506553000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>425710900</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>434746000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>268320000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>241773000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>1138000000</v>
+      </c>
+      <c r="C6">
         <v>957000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1028000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>868000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>923000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>817000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>669000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>655000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>626934900</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>439000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>546000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>643065100</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>478457000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>427860000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>407468000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>394215000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>321236000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>326619000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>334819000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>293389000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>286257000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>281283000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>267052000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>268367000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>251640000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>240777000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>236685000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>237374000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>239869000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>218158000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>220625000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>196993000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>226502000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>196371000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>172891000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>170902000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>191084000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>171162000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>161864000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>154827000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>390000000</v>
+      </c>
+      <c r="C7">
         <v>600000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>501000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>731000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>577000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>707000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>820000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>749000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>586994100</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>636000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>336000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>183005900</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>368475000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>386793000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>455685000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>399047000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>379931000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>376673000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>324313000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>281992000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>259715000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>251469000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>204172000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>159285000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>158467000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>192524000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>159427000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>130181000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>143706100</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>144979000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>149433000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>165456000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>175871900</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>104361000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>46284000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>335651000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>234626900</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>263584000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>106456000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>86946000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
-        <v>7000000</v>
+        <v>-11000000</v>
       </c>
       <c r="C8">
-        <v>16000000</v>
+        <v>-7000000</v>
       </c>
       <c r="D8">
-        <v>16000000</v>
+        <v>-16000000</v>
       </c>
       <c r="E8">
-        <v>27000000</v>
+        <v>-16000000</v>
       </c>
       <c r="F8">
-        <v>83000000</v>
+        <v>-27000000</v>
       </c>
       <c r="G8">
+        <v>-83000000</v>
+      </c>
+      <c r="H8">
         <v>-19000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>9000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>379000000</v>
+      </c>
+      <c r="C9">
         <v>593000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>485000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>715000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>550000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>624000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>801000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>749000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>586994000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>636000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>336000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>183006000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>368475000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>386793000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>455685000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>399047000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>379931100</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>376673000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>324313000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>281992000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>259715000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>251469000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>204172000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>159285000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>158467000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>192524000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>159427000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>130181000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>143706000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>144979000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>149433000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>165456000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>175872000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>104361000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>46284000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>335651000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>234627000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>263584000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>106456000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>86946000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>74000000</v>
+      </c>
+      <c r="C10">
         <v>175000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>132000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>182000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>142000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>149000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>173000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>187000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>148643000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>162000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>88000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>49357000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>93376000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>105075000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>119114000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>107435000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>105000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>95308000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>77287000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>73966000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>135051000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>97351000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>71656000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>51405000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>54825000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>76877000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>65047000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>53584000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>53697000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>57017000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>54974000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>63066000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>46077000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>40207000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>35928000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>61296000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>43057000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>47404000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>29968000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>26401000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>305000000</v>
+      </c>
+      <c r="C11">
         <v>418000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>353000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>533000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>408000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>475000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>628000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>562000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>438351000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>474000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>248000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>133649000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>275099000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>281718000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>336571000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>291612000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>274931000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>281365000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>247026000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>208026000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>124664000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>154118000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>132516000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>107880000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>103642000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>115647000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>94380000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>76597000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>90009000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>87962000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>94459000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>102390000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>129795000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>64154000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>10356000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>274355000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>191569900</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>216180000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>76488000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>60545000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
         <v>40000000</v>
@@ -1733,48 +1880,48 @@
         <v>40000000</v>
       </c>
       <c r="D12">
+        <v>40000000</v>
+      </c>
+      <c r="E12">
         <v>43000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>23000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>22000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>13000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>5000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>4631000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>4000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>5000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>3369000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>200</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="W12">
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="V12">
         <v>0</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
-      <c r="AJ12">
+      <c r="Y12">
         <v>0</v>
       </c>
       <c r="AK12">
@@ -1783,2084 +1930,2129 @@
       <c r="AL12">
         <v>0</v>
       </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>-10000000</v>
+      </c>
+      <c r="C13">
         <v>-51000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-20000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>18000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>14000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>88000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>113000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>25000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>45973000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>28000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>14000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-1973000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>12099000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>14437000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>18584000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>2880000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>8667000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>6548000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>9228000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>13065000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>7454000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>5498000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>9323000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>6397000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>4176000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>4566000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>1416000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>-2577000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>2497000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>6229000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>8316000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>13874000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>71805000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>177000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>-40597000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>183405000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>134149000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>148559000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>27904000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>19654000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>275000000</v>
+      </c>
+      <c r="C14">
         <v>429000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>333000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>472000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>371000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>365000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>502000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>532000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>387747000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>442000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>229000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>132253000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>263000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>267281000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>317987000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>288732000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>266264100</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>274817000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>237798000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>194961000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>117210000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>148620000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>123193000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>101483000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>99466000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>111081000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>92964000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>79174000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>87512000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>81733000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>86143000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>88516000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>57990000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>63977000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>50953000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>90950000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>57421000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>67621000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>48584000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>40891000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>7.2</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C15">
+        <v>7.26</v>
+      </c>
+      <c r="D15">
+        <v>5.65</v>
+      </c>
+      <c r="E15">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="F15">
+        <v>6.32</v>
+      </c>
+      <c r="G15">
+        <v>6.33</v>
+      </c>
+      <c r="H15">
+        <v>9.23</v>
+      </c>
+      <c r="I15">
+        <v>10.2</v>
+      </c>
+      <c r="J15">
+        <v>7.49</v>
+      </c>
+      <c r="K15">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="L15">
+        <v>4.44</v>
+      </c>
+      <c r="M15">
+        <v>2.56</v>
+      </c>
+      <c r="N15">
+        <v>5.1</v>
+      </c>
+      <c r="O15">
+        <v>5.19</v>
+      </c>
+      <c r="P15">
+        <v>6.12</v>
+      </c>
+      <c r="Q15">
+        <v>5.49</v>
+      </c>
+      <c r="R15">
+        <v>5.01</v>
+      </c>
+      <c r="S15">
+        <v>5.16</v>
+      </c>
+      <c r="T15">
+        <v>4.48</v>
+      </c>
+      <c r="U15">
+        <v>3.69</v>
+      </c>
+      <c r="V15">
+        <v>2.22</v>
+      </c>
+      <c r="W15">
+        <v>2.82</v>
+      </c>
+      <c r="X15">
+        <v>2.34</v>
+      </c>
+      <c r="Y15">
+        <v>1.94</v>
+      </c>
+      <c r="Z15">
+        <v>1.91</v>
+      </c>
+      <c r="AA15">
+        <v>2.13</v>
+      </c>
+      <c r="AB15">
+        <v>1.79</v>
+      </c>
+      <c r="AC15">
+        <v>1.53</v>
+      </c>
+      <c r="AD15">
+        <v>1.7</v>
+      </c>
+      <c r="AE15">
+        <v>1.59</v>
+      </c>
+      <c r="AF15">
+        <v>1.68</v>
+      </c>
+      <c r="AG15">
+        <v>1.74</v>
+      </c>
+      <c r="AH15">
+        <v>1.16</v>
+      </c>
+      <c r="AI15">
+        <v>1.24</v>
+      </c>
+      <c r="AJ15">
+        <v>1.05</v>
+      </c>
+      <c r="AK15">
+        <v>1.99</v>
+      </c>
+      <c r="AL15">
+        <v>1.29</v>
+      </c>
+      <c r="AM15">
+        <v>1.48</v>
+      </c>
+      <c r="AN15">
+        <v>1.08</v>
+      </c>
+      <c r="AO15">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
+        <v>7.21</v>
+      </c>
+      <c r="D16">
         <v>5.6</v>
       </c>
-      <c r="D15">
+      <c r="E16">
         <v>7.92</v>
       </c>
-      <c r="E15">
+      <c r="F16">
         <v>6.22</v>
       </c>
-      <c r="F15">
+      <c r="G16">
         <v>6.24</v>
       </c>
-      <c r="G15">
-        <v>9.23</v>
-      </c>
-      <c r="H15">
-        <v>10.2</v>
-      </c>
-      <c r="I15">
-        <v>7.49</v>
-      </c>
-      <c r="J15">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="K15">
-        <v>4.44</v>
-      </c>
-      <c r="L15">
-        <v>2.56</v>
-      </c>
-      <c r="M15">
+      <c r="H16">
+        <v>9.09</v>
+      </c>
+      <c r="I16">
+        <v>10.03</v>
+      </c>
+      <c r="J16">
+        <v>7.4</v>
+      </c>
+      <c r="K16">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="L16">
+        <v>4.42</v>
+      </c>
+      <c r="M16">
+        <v>2.55</v>
+      </c>
+      <c r="N16">
+        <v>5.06</v>
+      </c>
+      <c r="O16">
+        <v>5.15</v>
+      </c>
+      <c r="P16">
+        <v>6.08</v>
+      </c>
+      <c r="Q16">
+        <v>5.44</v>
+      </c>
+      <c r="R16">
+        <v>4.96</v>
+      </c>
+      <c r="S16">
         <v>5.1</v>
       </c>
-      <c r="N15">
-        <v>5.19</v>
-      </c>
-      <c r="O15">
-        <v>6.12</v>
-      </c>
-      <c r="P15">
-        <v>5.49</v>
-      </c>
-      <c r="Q15">
-        <v>5.01</v>
-      </c>
-      <c r="R15">
-        <v>5.16</v>
-      </c>
-      <c r="S15">
-        <v>4.48</v>
-      </c>
-      <c r="T15">
-        <v>3.69</v>
-      </c>
-      <c r="U15">
-        <v>2.22</v>
-      </c>
-      <c r="V15">
-        <v>2.82</v>
-      </c>
-      <c r="W15">
-        <v>2.34</v>
-      </c>
-      <c r="X15">
-        <v>1.94</v>
-      </c>
-      <c r="Y15">
+      <c r="T16">
+        <v>4.42</v>
+      </c>
+      <c r="U16">
+        <v>3.63</v>
+      </c>
+      <c r="V16">
+        <v>2.19</v>
+      </c>
+      <c r="W16">
+        <v>2.79</v>
+      </c>
+      <c r="X16">
+        <v>2.32</v>
+      </c>
+      <c r="Y16">
         <v>1.91</v>
       </c>
-      <c r="Z15">
-        <v>2.13</v>
-      </c>
-      <c r="AA15">
-        <v>1.79</v>
-      </c>
-      <c r="AB15">
-        <v>1.53</v>
-      </c>
-      <c r="AC15">
-        <v>1.7</v>
-      </c>
-      <c r="AD15">
-        <v>1.59</v>
-      </c>
-      <c r="AE15">
+      <c r="Z16">
+        <v>1.89</v>
+      </c>
+      <c r="AA16">
+        <v>2.12</v>
+      </c>
+      <c r="AB16">
+        <v>1.78</v>
+      </c>
+      <c r="AC16">
+        <v>1.52</v>
+      </c>
+      <c r="AD16">
         <v>1.68</v>
       </c>
-      <c r="AF15">
-        <v>1.74</v>
-      </c>
-      <c r="AG15">
-        <v>1.16</v>
-      </c>
-      <c r="AH15">
-        <v>1.24</v>
-      </c>
-      <c r="AI15">
-        <v>1.05</v>
-      </c>
-      <c r="AJ15">
-        <v>1.99</v>
-      </c>
-      <c r="AK15">
-        <v>1.29</v>
-      </c>
-      <c r="AL15">
-        <v>1.48</v>
-      </c>
-      <c r="AM15">
-        <v>1.08</v>
-      </c>
-      <c r="AN15">
-        <v>0.91</v>
+      <c r="AE16">
+        <v>1.57</v>
+      </c>
+      <c r="AF16">
+        <v>1.66</v>
+      </c>
+      <c r="AG16">
+        <v>1.71</v>
+      </c>
+      <c r="AH16">
+        <v>1.14</v>
+      </c>
+      <c r="AI16">
+        <v>1.22</v>
+      </c>
+      <c r="AJ16">
+        <v>1.04</v>
+      </c>
+      <c r="AK16">
+        <v>1.95</v>
+      </c>
+      <c r="AL16">
+        <v>1.27</v>
+      </c>
+      <c r="AM16">
+        <v>1.46</v>
+      </c>
+      <c r="AN16">
+        <v>1.06</v>
+      </c>
+      <c r="AO16">
+        <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>7.21</v>
-      </c>
-      <c r="C16">
-        <v>5.6</v>
-      </c>
-      <c r="D16">
-        <v>7.92</v>
-      </c>
-      <c r="E16">
-        <v>6.22</v>
-      </c>
-      <c r="F16">
-        <v>6.24</v>
-      </c>
-      <c r="G16">
-        <v>9.09</v>
-      </c>
-      <c r="H16">
-        <v>10.03</v>
-      </c>
-      <c r="I16">
-        <v>7.4</v>
-      </c>
-      <c r="J16">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="K16">
-        <v>4.42</v>
-      </c>
-      <c r="L16">
-        <v>2.55</v>
-      </c>
-      <c r="M16">
-        <v>5.06</v>
-      </c>
-      <c r="N16">
-        <v>5.15</v>
-      </c>
-      <c r="O16">
-        <v>6.08</v>
-      </c>
-      <c r="P16">
-        <v>5.44</v>
-      </c>
-      <c r="Q16">
-        <v>4.96</v>
-      </c>
-      <c r="R16">
-        <v>5.1</v>
-      </c>
-      <c r="S16">
-        <v>4.42</v>
-      </c>
-      <c r="T16">
-        <v>3.63</v>
-      </c>
-      <c r="U16">
-        <v>2.19</v>
-      </c>
-      <c r="V16">
-        <v>2.79</v>
-      </c>
-      <c r="W16">
-        <v>2.32</v>
-      </c>
-      <c r="X16">
-        <v>1.91</v>
-      </c>
-      <c r="Y16">
-        <v>1.89</v>
-      </c>
-      <c r="Z16">
-        <v>2.12</v>
-      </c>
-      <c r="AA16">
-        <v>1.78</v>
-      </c>
-      <c r="AB16">
-        <v>1.52</v>
-      </c>
-      <c r="AC16">
-        <v>1.68</v>
-      </c>
-      <c r="AD16">
-        <v>1.57</v>
-      </c>
-      <c r="AE16">
-        <v>1.66</v>
-      </c>
-      <c r="AF16">
-        <v>1.71</v>
-      </c>
-      <c r="AG16">
-        <v>1.14</v>
-      </c>
-      <c r="AH16">
-        <v>1.22</v>
-      </c>
-      <c r="AI16">
-        <v>1.04</v>
-      </c>
-      <c r="AJ16">
-        <v>1.95</v>
-      </c>
-      <c r="AK16">
-        <v>1.27</v>
-      </c>
-      <c r="AL16">
-        <v>1.46</v>
-      </c>
-      <c r="AM16">
-        <v>1.06</v>
-      </c>
-      <c r="AN16">
-        <v>0.9</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17">
+        <v>59112500</v>
+      </c>
+      <c r="C17">
+        <v>59096000</v>
+      </c>
+      <c r="D17">
+        <v>58935000</v>
+      </c>
+      <c r="E17">
+        <v>58800000</v>
+      </c>
+      <c r="F17">
+        <v>55763000</v>
+      </c>
+      <c r="G17">
+        <v>57723000</v>
+      </c>
+      <c r="H17">
+        <v>54353000</v>
+      </c>
+      <c r="I17">
+        <v>52180000</v>
+      </c>
+      <c r="J17">
+        <v>51685000</v>
+      </c>
+      <c r="K17">
+        <v>51773000</v>
+      </c>
+      <c r="L17">
+        <v>51581000</v>
+      </c>
+      <c r="M17">
+        <v>51565000</v>
+      </c>
+      <c r="N17">
+        <v>51915000</v>
+      </c>
+      <c r="O17">
+        <v>51545000</v>
+      </c>
+      <c r="P17">
+        <v>51955000</v>
+      </c>
+      <c r="Q17">
+        <v>52587000</v>
+      </c>
+      <c r="R17">
+        <v>53078000</v>
+      </c>
+      <c r="S17">
+        <v>53235000</v>
+      </c>
+      <c r="T17">
+        <v>53064000</v>
+      </c>
+      <c r="U17">
+        <v>52883000</v>
+      </c>
+      <c r="V17">
+        <v>52588000</v>
+      </c>
+      <c r="W17">
+        <v>52705000</v>
+      </c>
+      <c r="X17">
+        <v>52537000</v>
+      </c>
+      <c r="Y17">
+        <v>52344000</v>
+      </c>
+      <c r="Z17">
+        <v>51915000</v>
+      </c>
+      <c r="AA17">
+        <v>52046000</v>
+      </c>
+      <c r="AB17">
+        <v>51831000</v>
+      </c>
+      <c r="AC17">
+        <v>51646000</v>
+      </c>
+      <c r="AD17">
+        <v>51318000</v>
+      </c>
+      <c r="AE17">
+        <v>51479000</v>
+      </c>
+      <c r="AF17">
+        <v>51268000</v>
+      </c>
+      <c r="AG17">
+        <v>51009000</v>
+      </c>
+      <c r="AH17">
+        <v>48931000</v>
+      </c>
+      <c r="AI17">
+        <v>50752000</v>
+      </c>
+      <c r="AJ17">
+        <v>48168000</v>
+      </c>
+      <c r="AK17">
+        <v>45866000</v>
+      </c>
+      <c r="AL17">
+        <v>45309000</v>
+      </c>
+      <c r="AM17">
+        <v>45580000</v>
+      </c>
+      <c r="AN17">
+        <v>45164000</v>
+      </c>
+      <c r="AO17">
+        <v>44802000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>59000000</v>
-      </c>
-      <c r="C17">
-        <v>59000000</v>
-      </c>
-      <c r="D17">
-        <v>59000000</v>
-      </c>
-      <c r="E17">
-        <v>59000000</v>
-      </c>
-      <c r="F17">
-        <v>58000000</v>
-      </c>
-      <c r="G17">
-        <v>54353000</v>
-      </c>
-      <c r="H17">
-        <v>52180000</v>
-      </c>
-      <c r="I17">
-        <v>51685000</v>
-      </c>
-      <c r="J17">
-        <v>51773000</v>
-      </c>
-      <c r="K17">
-        <v>51581000</v>
-      </c>
-      <c r="L17">
-        <v>51565000</v>
-      </c>
-      <c r="M17">
-        <v>51915000</v>
-      </c>
-      <c r="N17">
-        <v>51545000</v>
-      </c>
-      <c r="O17">
-        <v>51955000</v>
-      </c>
-      <c r="P17">
-        <v>52587000</v>
-      </c>
-      <c r="Q17">
-        <v>53078000</v>
-      </c>
-      <c r="R17">
-        <v>53235000</v>
-      </c>
-      <c r="S17">
-        <v>53064000</v>
-      </c>
-      <c r="T17">
-        <v>52883000</v>
-      </c>
-      <c r="U17">
-        <v>52588000</v>
-      </c>
-      <c r="V17">
-        <v>52705000</v>
-      </c>
-      <c r="W17">
-        <v>52537000</v>
-      </c>
-      <c r="X17">
-        <v>52344000</v>
-      </c>
-      <c r="Y17">
-        <v>51915000</v>
-      </c>
-      <c r="Z17">
-        <v>52046000</v>
-      </c>
-      <c r="AA17">
-        <v>51831000</v>
-      </c>
-      <c r="AB17">
-        <v>51646000</v>
-      </c>
-      <c r="AC17">
-        <v>51318000</v>
-      </c>
-      <c r="AD17">
-        <v>51479000</v>
-      </c>
-      <c r="AE17">
-        <v>51268000</v>
-      </c>
-      <c r="AF17">
-        <v>51009000</v>
-      </c>
-      <c r="AG17">
-        <v>48931000</v>
-      </c>
-      <c r="AH17">
-        <v>50752000</v>
-      </c>
-      <c r="AI17">
-        <v>48168000</v>
-      </c>
-      <c r="AJ17">
-        <v>45866000</v>
-      </c>
-      <c r="AK17">
-        <v>45309000</v>
-      </c>
-      <c r="AL17">
-        <v>45580000</v>
-      </c>
-      <c r="AM17">
-        <v>45164000</v>
-      </c>
-      <c r="AN17">
-        <v>44802000</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18">
+        <v>59454700</v>
+      </c>
+      <c r="C18">
+        <v>59549000</v>
+      </c>
+      <c r="D18">
+        <v>59454000</v>
+      </c>
+      <c r="E18">
+        <v>59599000</v>
+      </c>
+      <c r="F18">
+        <v>56638000</v>
+      </c>
+      <c r="G18">
+        <v>58521000</v>
+      </c>
+      <c r="H18">
+        <v>55152000</v>
+      </c>
+      <c r="I18">
+        <v>53076000</v>
+      </c>
+      <c r="J18">
+        <v>52084000</v>
+      </c>
+      <c r="K18">
+        <v>52146000</v>
+      </c>
+      <c r="L18">
+        <v>51795000</v>
+      </c>
+      <c r="M18">
+        <v>51944000</v>
+      </c>
+      <c r="N18">
+        <v>52311000</v>
+      </c>
+      <c r="O18">
+        <v>51858000</v>
+      </c>
+      <c r="P18">
+        <v>52336000</v>
+      </c>
+      <c r="Q18">
+        <v>53109000</v>
+      </c>
+      <c r="R18">
+        <v>53772000</v>
+      </c>
+      <c r="S18">
+        <v>53919000</v>
+      </c>
+      <c r="T18">
+        <v>53776000</v>
+      </c>
+      <c r="U18">
+        <v>53685000</v>
+      </c>
+      <c r="V18">
+        <v>53306000</v>
+      </c>
+      <c r="W18">
+        <v>53305000</v>
+      </c>
+      <c r="X18">
+        <v>53194000</v>
+      </c>
+      <c r="Y18">
+        <v>53179000</v>
+      </c>
+      <c r="Z18">
+        <v>52349000</v>
+      </c>
+      <c r="AA18">
+        <v>52413000</v>
+      </c>
+      <c r="AB18">
+        <v>52187000</v>
+      </c>
+      <c r="AC18">
+        <v>52085000</v>
+      </c>
+      <c r="AD18">
+        <v>51916000</v>
+      </c>
+      <c r="AE18">
+        <v>52048000</v>
+      </c>
+      <c r="AF18">
+        <v>51876000</v>
+      </c>
+      <c r="AG18">
+        <v>51719000</v>
+      </c>
+      <c r="AH18">
+        <v>49662000</v>
+      </c>
+      <c r="AI18">
+        <v>51571000</v>
+      </c>
+      <c r="AJ18">
+        <v>49045000</v>
+      </c>
+      <c r="AK18">
+        <v>46725000</v>
+      </c>
+      <c r="AL18">
+        <v>45944000</v>
+      </c>
+      <c r="AM18">
+        <v>46202000</v>
+      </c>
+      <c r="AN18">
+        <v>45684000</v>
+      </c>
+      <c r="AO18">
+        <v>45393000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>60000000</v>
-      </c>
-      <c r="C18">
-        <v>59000000</v>
-      </c>
-      <c r="D18">
-        <v>60000000</v>
-      </c>
-      <c r="E18">
-        <v>60000000</v>
-      </c>
-      <c r="F18">
-        <v>59000000</v>
-      </c>
-      <c r="G18">
-        <v>55152000</v>
-      </c>
-      <c r="H18">
-        <v>53076000</v>
-      </c>
-      <c r="I18">
-        <v>52084000</v>
-      </c>
-      <c r="J18">
-        <v>52146000</v>
-      </c>
-      <c r="K18">
-        <v>51795000</v>
-      </c>
-      <c r="L18">
-        <v>51944000</v>
-      </c>
-      <c r="M18">
-        <v>52311000</v>
-      </c>
-      <c r="N18">
-        <v>51858000</v>
-      </c>
-      <c r="O18">
-        <v>52336000</v>
-      </c>
-      <c r="P18">
-        <v>53109000</v>
-      </c>
-      <c r="Q18">
-        <v>53772000</v>
-      </c>
-      <c r="R18">
-        <v>53919000</v>
-      </c>
-      <c r="S18">
-        <v>53776000</v>
-      </c>
-      <c r="T18">
-        <v>53685000</v>
-      </c>
-      <c r="U18">
-        <v>53306000</v>
-      </c>
-      <c r="V18">
-        <v>53305000</v>
-      </c>
-      <c r="W18">
-        <v>53194000</v>
-      </c>
-      <c r="X18">
-        <v>53179000</v>
-      </c>
-      <c r="Y18">
-        <v>52349000</v>
-      </c>
-      <c r="Z18">
-        <v>52413000</v>
-      </c>
-      <c r="AA18">
-        <v>52187000</v>
-      </c>
-      <c r="AB18">
-        <v>52085000</v>
-      </c>
-      <c r="AC18">
-        <v>51916000</v>
-      </c>
-      <c r="AD18">
-        <v>52048000</v>
-      </c>
-      <c r="AE18">
-        <v>51876000</v>
-      </c>
-      <c r="AF18">
-        <v>51719000</v>
-      </c>
-      <c r="AG18">
-        <v>49662000</v>
-      </c>
-      <c r="AH18">
-        <v>51571000</v>
-      </c>
-      <c r="AI18">
-        <v>49045000</v>
-      </c>
-      <c r="AJ18">
-        <v>46725000</v>
-      </c>
-      <c r="AK18">
-        <v>45944000</v>
-      </c>
-      <c r="AL18">
-        <v>46202000</v>
-      </c>
-      <c r="AM18">
-        <v>45684000</v>
-      </c>
-      <c r="AN18">
-        <v>45393000</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19">
+        <v>0.6803</v>
+      </c>
+      <c r="C19">
+        <v>0.8282</v>
+      </c>
+      <c r="D19">
+        <v>0.9346</v>
+      </c>
+      <c r="E19">
+        <v>0.9756</v>
+      </c>
+      <c r="F19">
+        <v>0.9766</v>
+      </c>
+      <c r="G19">
+        <v>0.9794</v>
+      </c>
+      <c r="H19">
+        <v>0.9848</v>
+      </c>
+      <c r="I19">
+        <v>0.9866</v>
+      </c>
+      <c r="J19">
+        <v>0.9872</v>
+      </c>
+      <c r="K19">
+        <v>0.9862</v>
+      </c>
+      <c r="L19">
+        <v>0.9877</v>
+      </c>
+      <c r="M19">
+        <v>0.9502</v>
+      </c>
+      <c r="N19">
+        <v>0.9387</v>
+      </c>
+      <c r="O19">
+        <v>0.928</v>
+      </c>
+      <c r="P19">
+        <v>0.9387</v>
+      </c>
+      <c r="Q19">
+        <v>0.9540999999999999</v>
+      </c>
+      <c r="R19">
+        <v>0.961</v>
+      </c>
+      <c r="S19">
+        <v>0.9722</v>
+      </c>
+      <c r="T19">
+        <v>0.978</v>
+      </c>
+      <c r="U19">
+        <v>0.9787</v>
+      </c>
+      <c r="V19">
+        <v>0.9797</v>
+      </c>
+      <c r="W19">
+        <v>0.9792</v>
+      </c>
+      <c r="X19">
+        <v>0.9767</v>
+      </c>
+      <c r="Y19">
+        <v>0.9751</v>
+      </c>
+      <c r="Z19">
+        <v>0.9745</v>
+      </c>
+      <c r="AA19">
+        <v>0.9747</v>
+      </c>
+      <c r="AB19">
+        <v>0.9738</v>
+      </c>
+      <c r="AC19">
+        <v>0.9729</v>
+      </c>
+      <c r="AD19">
+        <v>0.9742</v>
+      </c>
+      <c r="AE19">
+        <v>0.9729</v>
+      </c>
+      <c r="AF19">
+        <v>0.9733000000000001</v>
+      </c>
+      <c r="AG19">
+        <v>0.9734</v>
+      </c>
+      <c r="AH19">
+        <v>0.9782</v>
+      </c>
+      <c r="AI19">
+        <v>0.9717</v>
+      </c>
+      <c r="AJ19">
+        <v>0.9611</v>
+      </c>
+      <c r="AK19">
+        <v>0.9831</v>
+      </c>
+      <c r="AL19">
+        <v>0.9807</v>
+      </c>
+      <c r="AM19">
+        <v>0.9816</v>
+      </c>
+      <c r="AN19">
+        <v>0.9714</v>
+      </c>
+      <c r="AO19">
+        <v>0.9686</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1.0032</v>
-      </c>
-      <c r="C19">
-        <v>1.0324</v>
-      </c>
-      <c r="D19">
-        <v>1.0356</v>
-      </c>
-      <c r="E19">
-        <v>1.0007</v>
-      </c>
-      <c r="F19">
-        <v>1.0374</v>
-      </c>
-      <c r="G19">
-        <v>0.9848</v>
-      </c>
-      <c r="H19">
-        <v>0.9866</v>
-      </c>
-      <c r="I19">
-        <v>0.9872</v>
-      </c>
-      <c r="J19">
-        <v>0.9862</v>
-      </c>
-      <c r="K19">
-        <v>0.9877</v>
-      </c>
-      <c r="L19">
-        <v>0.9502</v>
-      </c>
-      <c r="M19">
-        <v>0.9387</v>
-      </c>
-      <c r="N19">
-        <v>0.928</v>
-      </c>
-      <c r="O19">
-        <v>0.9387</v>
-      </c>
-      <c r="P19">
-        <v>0.9540999999999999</v>
-      </c>
-      <c r="Q19">
-        <v>0.961</v>
-      </c>
-      <c r="R19">
-        <v>0.9722</v>
-      </c>
-      <c r="S19">
-        <v>0.978</v>
-      </c>
-      <c r="T19">
-        <v>0.9787</v>
-      </c>
-      <c r="U19">
-        <v>0.9797</v>
-      </c>
-      <c r="V19">
-        <v>0.9792</v>
-      </c>
-      <c r="W19">
-        <v>0.9767</v>
-      </c>
-      <c r="X19">
-        <v>0.9751</v>
-      </c>
-      <c r="Y19">
-        <v>0.9745</v>
-      </c>
-      <c r="Z19">
-        <v>0.9747</v>
-      </c>
-      <c r="AA19">
-        <v>0.9738</v>
-      </c>
-      <c r="AB19">
-        <v>0.9729</v>
-      </c>
-      <c r="AC19">
-        <v>0.9742</v>
-      </c>
-      <c r="AD19">
-        <v>0.9729</v>
-      </c>
-      <c r="AE19">
-        <v>0.9733000000000001</v>
-      </c>
-      <c r="AF19">
-        <v>0.9734</v>
-      </c>
-      <c r="AG19">
-        <v>0.9782</v>
-      </c>
-      <c r="AH19">
-        <v>0.9717</v>
-      </c>
-      <c r="AI19">
-        <v>0.9611</v>
-      </c>
-      <c r="AJ19">
-        <v>0.9831</v>
-      </c>
-      <c r="AK19">
-        <v>0.9807</v>
-      </c>
-      <c r="AL19">
-        <v>0.9816</v>
-      </c>
-      <c r="AM19">
-        <v>0.9714</v>
-      </c>
-      <c r="AN19">
-        <v>0.9686</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
-        <v>0.3821</v>
+        <v>0.1687</v>
       </c>
       <c r="C21">
-        <v>0.3275</v>
+        <v>0.3154</v>
       </c>
       <c r="D21">
-        <v>0.4631</v>
+        <v>0.2965</v>
       </c>
       <c r="E21">
-        <v>0.3669</v>
+        <v>0.4362</v>
       </c>
       <c r="F21">
-        <v>0.4248</v>
+        <v>0.3581</v>
       </c>
       <c r="G21">
+        <v>0.401</v>
+      </c>
+      <c r="H21">
         <v>0.5298</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.5264</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.4774</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.5835</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.3763</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.2105</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.4084</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.4406</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.4956</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.48</v>
-      </c>
-      <c r="Q21">
-        <v>0.5207000000000001</v>
       </c>
       <c r="R21">
         <v>0.5207000000000001</v>
       </c>
       <c r="S21">
+        <v>0.5207000000000001</v>
+      </c>
+      <c r="T21">
         <v>0.4812</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.4796</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.466</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.4622</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.4232</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.3632</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.3766</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.4331</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.3919</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.3446</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.365</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.3884</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.393</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.4444</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.4275</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.3372</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.203</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.6514</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.5405</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.5951</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.3854</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.3483</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
-        <v>0.2764</v>
+        <v>0.1224</v>
       </c>
       <c r="C22">
-        <v>0.2248</v>
+        <v>0.2282</v>
       </c>
       <c r="D22">
-        <v>0.3057</v>
+        <v>0.2035</v>
       </c>
       <c r="E22">
-        <v>0.2475</v>
+        <v>0.288</v>
       </c>
       <c r="F22">
-        <v>0.2485</v>
+        <v>0.2415</v>
       </c>
       <c r="G22">
+        <v>0.2346</v>
+      </c>
+      <c r="H22">
         <v>0.332</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.3739</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.3153</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.4055</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.2564</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.1521</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.2915</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.3045</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.3458</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.3473</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.3649</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.3799</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.3528</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.3316</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.2103</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.2732</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.2553</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.2314</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.2364</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.2499</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.2285</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.2096</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.2223</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.219</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.2266</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.2377</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.141</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.2067</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.2234</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.1765</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.1323</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.1527</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.1759</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.1638</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>305000000</v>
+      </c>
+      <c r="C23">
         <v>418000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>353000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>533000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>408000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>475000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>628000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>562000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>438351000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>474000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>248000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>133649000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>275099000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>281718000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>336571000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>291612000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>274931000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>281365000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>247026000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>208026000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>124664000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>154118000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>132516000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>107880000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>103642000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>115647000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>94380000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>76597000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>90009000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>87962000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>94459000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>102390000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>129795000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>64154000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>10356000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>274355000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>191569900</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>216180000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>76488000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>60545000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>305000000</v>
+      </c>
+      <c r="C24">
         <v>418000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>353000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>533000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>408000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>475000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>628000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>562000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>438351000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>474000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>248000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>133649000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>275098900</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>281718000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>336571000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>291612000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>274931000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>281365000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>247026000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>208026000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>124664000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>154118000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>132516000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>107880000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>103642000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>115647000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>94380000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>76597000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>90009000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>87962000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>94459000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>102390000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>129795000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>64154000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>10356000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>274355000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>191570000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>216180000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>76488000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>60545000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>5.1597</v>
+      </c>
+      <c r="C25">
         <v>7.0732</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>5.9896</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>9.0646</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>6.6217</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>8.228999999999999</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>11.5541</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>10.7704</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>8.4811</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>9.1554</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>4.808</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>2.5919</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>5.3368</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>5.4655</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>6.4781</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>5.5453</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>5.1797</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>5.2853</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>4.6552</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>3.9337</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>2.3651</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>2.9242</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>2.5223</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>2.061</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>1.9914</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>2.222</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>1.8209</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>1.4831</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>1.7454</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>1.7087</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>1.8425</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>2.0073</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>2.3216</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>1.2641</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>0.215</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>5.9817</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>4.2359</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>4.7429</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>1.6936</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>1.3514</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>5.13</v>
+      </c>
+      <c r="C26">
         <v>7.0194</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>5.9374</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>8.943099999999999</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>6.5088</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>8.1167</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>11.3867</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>10.5886</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>8.393599999999999</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>9.0899</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>4.7881</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>2.5729</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>5.2987</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>5.4325</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>6.431</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>5.4908</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>5.1212</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>5.2183</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>4.5936</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>3.8749</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>2.3285</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>2.8912</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>2.4912</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>2.0286</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>1.9695</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>2.2065</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>1.8085</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>1.4706</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>1.7291</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>1.69</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>1.8209</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>1.9797</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>2.3115</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>1.244</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>0.2112</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>5.8717</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>4.1704</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>4.679</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>1.6743</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>1.3338</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>5.1597</v>
+      </c>
+      <c r="C27">
         <v>7.0732</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>5.9896</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>9.0646</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>6.6217</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>8.228999999999999</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>11.5541</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>10.7704</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>8.4811</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>9.1554</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>4.808</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>2.5919</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>5.3368</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>5.4655</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>6.4781</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>5.5453</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>5.1797</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>5.2853</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>4.6552</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>3.9337</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>2.3651</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>2.9242</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>2.5223</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>2.061</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>1.9914</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>2.222</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>1.8209</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>1.4831</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>1.7454</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>1.7087</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>1.8425</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>2.0073</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>2.3216</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>1.2641</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>0.215</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>5.9817</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>4.2359</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>4.7429</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>1.6936</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>1.3514</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>5.13</v>
+      </c>
+      <c r="C28">
         <v>7.0194</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>5.9374</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>8.943099999999999</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>6.5088</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>8.1167</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>11.3867</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>10.5886</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>8.393599999999999</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>9.0899</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>4.7881</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>2.5729</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>5.2987</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>5.4325</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>6.431</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>5.4908</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>5.1212</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>5.2183</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>4.5936</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>3.8749</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>2.3285</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>2.8912</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>2.4912</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>2.0286</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>1.9695</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>2.2065</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>1.8085</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>1.4706</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>1.7291</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>1.69</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>1.8209</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>1.9797</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>2.3115</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>1.244</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>0.2112</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>5.8717</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>4.1704</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>4.679</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>1.6743</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>1.3338</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>59549000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>59454000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>59599000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>59624000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>58521000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>55152000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>53076000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>52466000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>52147000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>51795000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>51944000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>51959000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>51859000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>52336000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>53109000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>53685000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>53919000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>53776000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>53685000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>53502000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>53305000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>53194000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>53179000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>52677000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>52413000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>52187000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>52085000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>52061000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>52048000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>51876000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>51719000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>51528000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>51571000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>49045000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>46725000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>46431000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>46202000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>45684000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>45393000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3979,126 +4171,132 @@
       <c r="AN30">
         <v>0</v>
       </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
-        <v>0.279</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0.7103</v>
+        <v>0.2303</v>
       </c>
       <c r="D31">
-        <v>0.2325</v>
+        <v>0.643</v>
       </c>
       <c r="E31">
-        <v>0.447</v>
+        <v>0.219</v>
       </c>
       <c r="F31">
-        <v>0.3043</v>
+        <v>0.4362</v>
       </c>
       <c r="G31">
+        <v>0.2873</v>
+      </c>
+      <c r="H31">
         <v>0.3181</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.1504</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0.3196</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.2826</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>0.646</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>0.1934</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>0.5034999999999999</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>0.2952</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>0.1194</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>0.4099</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>0.3148</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>0.4929</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>-0.0015</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>0.5926</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>0.2257</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.2286</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0.5903</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>0.2552</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>0.4723</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>0.2945</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>0.2114</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>0.1484</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>0.2159</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>0.1161</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>0.4147</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>0.1429</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>0.0459</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>0.0591</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>0.7371</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>0.097</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>0.1699</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>0.1483</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>0.121</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>-0.0042</v>
       </c>
     </row>
